--- a/data/sentiment analysis data/sentimentanalysisresult/result.xlsx
+++ b/data/sentiment analysis data/sentimentanalysisresult/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="8975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -61,9 +61,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,8 +76,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,13 +181,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -113,76 +189,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -192,14 +199,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,7 +214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +226,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,19 +274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +292,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,13 +310,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,61 +346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,13 +364,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +405,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,30 +447,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -457,21 +457,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -505,16 +490,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,133 +523,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6606,11 +6606,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A103" sqref="$A103:$XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -6638,7 +6638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" hidden="1" spans="1:7">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" hidden="1" spans="1:7">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" hidden="1" spans="1:7">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" hidden="1" spans="1:7">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" hidden="1" spans="1:7">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" hidden="1" spans="1:7">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" hidden="1" spans="1:7">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" hidden="1" spans="1:7">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" hidden="1" spans="1:7">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" ht="13" customHeight="1" spans="1:7">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" hidden="1" spans="1:7">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" hidden="1" spans="1:7">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -9722,6 +9722,79 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G135">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="100"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="105"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="107"/>
+        <filter val="8"/>
+        <filter val="9"/>
+        <filter val="10"/>
+        <filter val="1410"/>
+        <filter val="11"/>
+        <filter val="511"/>
+        <filter val="13"/>
+        <filter val="113"/>
+        <filter val="15"/>
+        <filter val="16"/>
+        <filter val="416"/>
+        <filter val="17"/>
+        <filter val="18"/>
+        <filter val="118"/>
+        <filter val="19"/>
+        <filter val="20"/>
+        <filter val="21"/>
+        <filter val="22"/>
+        <filter val="23"/>
+        <filter val="24"/>
+        <filter val="25"/>
+        <filter val="27"/>
+        <filter val="28"/>
+        <filter val="29"/>
+        <filter val="30"/>
+        <filter val="31"/>
+        <filter val="32"/>
+        <filter val="132"/>
+        <filter val="33"/>
+        <filter val="933"/>
+        <filter val="1433"/>
+        <filter val="35"/>
+        <filter val="38"/>
+        <filter val="338"/>
+        <filter val="40"/>
+        <filter val="342"/>
+        <filter val="45"/>
+        <filter val="245"/>
+        <filter val="47"/>
+        <filter val="147"/>
+        <filter val="150"/>
+        <filter val="52"/>
+        <filter val="53"/>
+        <filter val="254"/>
+        <filter val="3754"/>
+        <filter val="56"/>
+        <filter val="59"/>
+        <filter val="61"/>
+        <filter val="262"/>
+        <filter val="66"/>
+        <filter val="167"/>
+        <filter val="69"/>
+        <filter val="269"/>
+        <filter val="70"/>
+        <filter val="76"/>
+        <filter val="187"/>
+        <filter val="89"/>
+        <filter val="392"/>
+        <filter val="493"/>
+        <filter val="95"/>
+        <filter val="496"/>
+        <filter val="1199"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A1:G135">
       <sortCondition ref="F2:F135" descending="1"/>
     </sortState>
